--- a/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_2_child_202205.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_2_child_202205.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9ED68C-433E-4DFD-B840-A97C5C0FA00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66551B81-46D8-4538-BB0C-FC1A1E85C089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="461">
   <si>
     <t>type</t>
   </si>
@@ -278,9 +278,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>Feminin</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -1271,24 +1268,6 @@
     <t>residence</t>
   </si>
   <si>
-    <t>Entrez le nombre d'années</t>
-  </si>
-  <si>
-    <t>La durée de résidence de doit pas être supérieure à l'age de l'enfant.</t>
-  </si>
-  <si>
-    <t>The length of residence must not exceed the age of the child.</t>
-  </si>
-  <si>
-    <t>Enter the number of years of residence</t>
-  </si>
-  <si>
-    <t>Dans le village le plus proche de l.école</t>
-  </si>
-  <si>
-    <t>Loin de l.école</t>
-  </si>
-  <si>
     <t>1. Code de l'enquêteur</t>
   </si>
   <si>
@@ -1307,9 +1286,6 @@
     <t xml:space="preserve">Respondent's identification code (Please copy this code as it is somewhere, among other things, on the diagnostic tests) </t>
   </si>
   <si>
-    <t>p_code_id</t>
-  </si>
-  <si>
     <t>How is this code generated: First capital letter of the district - 3-digit school code - 3-digit child serial number. Example: D-101-001</t>
   </si>
   <si>
@@ -1331,9 +1307,6 @@
     <t>end repeat</t>
   </si>
   <si>
-    <t>How many years the child lived in this village?</t>
-  </si>
-  <si>
     <t>Do you frequent pools of water (backwater, river, temporary pool of water, etc.)?</t>
   </si>
   <si>
@@ -1349,27 +1322,12 @@
     <t>8. Entrez l'âge de l’enfant en années</t>
   </si>
   <si>
-    <t>. &gt;= 8 and . &lt;= 14</t>
-  </si>
-  <si>
-    <t>The age must be between 8 and 14 years</t>
-  </si>
-  <si>
-    <t>L’âge doit être compris entre 8 et 14 ans</t>
-  </si>
-  <si>
     <t>9. Sélectionnez le sexe de l’enfant</t>
   </si>
   <si>
     <t>10. Où habite l'enfant?</t>
   </si>
   <si>
-    <t>11. Depuis combien d'années l'enfant habite ce village?</t>
-  </si>
-  <si>
-    <t>12. Fréquentez-vous les mares d’eau (marigot, fleuve, rivière, marre d’eau temporaire, …) ?</t>
-  </si>
-  <si>
     <t>13. Connaissez-vous la Bilharziose ?</t>
   </si>
   <si>
@@ -1403,18 +1361,6 @@
     <t>Do not know</t>
   </si>
   <si>
-    <t>14. Est-ce que vous avez une fois pissé du sang ?</t>
-  </si>
-  <si>
-    <t>Have you ever urinated blood?</t>
-  </si>
-  <si>
-    <t>Are you currently urinating blood</t>
-  </si>
-  <si>
-    <t>15. Est-ce que présentement vous urinez du sang ?</t>
-  </si>
-  <si>
     <t>Veuillez remercier l’enfant pour sa participation</t>
   </si>
   <si>
@@ -1424,9 +1370,6 @@
     <t>read_only</t>
   </si>
   <si>
-    <t>p_duree_residence</t>
-  </si>
-  <si>
     <t>p_mares_deau</t>
   </si>
   <si>
@@ -1436,12 +1379,6 @@
     <t>p_manif_bilh</t>
   </si>
   <si>
-    <t>p_pisse_sang</t>
-  </si>
-  <si>
-    <t>p_pisse_sang_present</t>
-  </si>
-  <si>
     <t>p_note_thanks</t>
   </si>
   <si>
@@ -1463,9 +1400,6 @@
     <t>if(${p_district}='DIAKHAO', 'D', if(${p_district}='FATICK', 'F', if(${p_district}='GOSSAS', 'G', if(${p_district}='KHOMBOLE', 'H', if(${p_district}='KOLDA', 'K', if(${p_district}='MALEM HODAR', 'M', if(${p_district}='NIAKHAR', 'N', if(${p_district}='VELINGARA', 'V', 'A' ))))))) )</t>
   </si>
   <si>
-    <t>. &lt;= ${p_age_yrs}</t>
-  </si>
-  <si>
     <t>Note additionnelle :</t>
   </si>
   <si>
@@ -1473,6 +1407,57 @@
   </si>
   <si>
     <t>sn_sch_sth_impact_2_child_202205_v2</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 14</t>
+  </si>
+  <si>
+    <t>The age must be between 5 and 14 years</t>
+  </si>
+  <si>
+    <t>L’âge doit être compris entre 5 et 14 ans</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Dans le village</t>
+  </si>
+  <si>
+    <t>Dans un village proche (à moins de 10km)</t>
+  </si>
+  <si>
+    <t>Dans un village situé à plus de 10 km</t>
+  </si>
+  <si>
+    <t>In the village</t>
+  </si>
+  <si>
+    <t>In a nearby village (less than 10km)</t>
+  </si>
+  <si>
+    <t>In a village located more than 10 km</t>
+  </si>
+  <si>
+    <t>p_chaussures</t>
+  </si>
+  <si>
+    <t>Observer: Is the child wearing shoes at the time of the survey?</t>
+  </si>
+  <si>
+    <t>11. Observateur : L’enfant porte-t-il des chaussures au moment de l’enquete ?</t>
+  </si>
+  <si>
+    <t>12. Est-ce que vous fréquentez les mares d’eau (marigot, fleuve, rivière, marre d’eau temporaire, …) ?</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>p_barcodeid</t>
   </si>
 </sst>
 </file>
@@ -2027,13 +2012,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2101,7 +2086,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -2112,26 +2097,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>389</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>390</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="27" t="s">
         <v>392</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>393</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -2153,7 +2138,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="34" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="8"/>
@@ -2180,7 +2165,7 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="34" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="8"/>
@@ -2205,11 +2190,11 @@
         <v>23</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="34" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="8"/>
@@ -2231,14 +2216,14 @@
         <v>17</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>150</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>151</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="34" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="8"/>
@@ -2252,7 +2237,7 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2282,10 +2267,10 @@
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -2296,8 +2281,8 @@
       <c r="I8" s="45"/>
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
-      <c r="L8" s="45" t="s">
-        <v>461</v>
+      <c r="L8" s="36" t="s">
+        <v>440</v>
       </c>
       <c r="M8" s="45"/>
       <c r="N8" s="45"/>
@@ -2322,17 +2307,17 @@
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="11" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="45"/>
@@ -2393,7 +2378,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>33</v>
@@ -2415,19 +2400,19 @@
         <v>17</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="37"/>
@@ -2437,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>16</v>
@@ -2458,18 +2443,18 @@
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="34" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="8"/>
       <c r="H15" s="37" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="K15" s="36" t="s">
         <v>34</v>
@@ -2493,7 +2478,7 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="34" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="28"/>
@@ -2512,17 +2497,17 @@
     </row>
     <row r="17" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>396</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="34" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="28"/>
@@ -2540,34 +2525,24 @@
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="1:15" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
-        <v>37</v>
+      <c r="A18" s="36" t="s">
+        <v>408</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>401</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>398</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="37" t="s">
-        <v>462</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>399</v>
-      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="36" t="s">
         <v>34</v>
       </c>
@@ -2579,18 +2554,18 @@
       <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
-        <v>35</v>
+      <c r="A19" s="36" t="s">
+        <v>408</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="34" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="28"/>
@@ -2612,14 +2587,14 @@
         <v>35</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="34" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="28"/>
@@ -2638,17 +2613,17 @@
     </row>
     <row r="21" spans="1:15" s="19" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="34" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="28"/>
@@ -2656,7 +2631,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
       <c r="K21" s="36" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="L21" s="28"/>
       <c r="M21" s="36" t="s">
@@ -2665,122 +2640,108 @@
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="1:15" s="19" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>443</v>
-      </c>
+    <row r="22" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="34" t="s">
-        <v>442</v>
-      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
-      <c r="K22" s="36" t="s">
-        <v>456</v>
-      </c>
+      <c r="K22" s="45"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="36" t="s">
-        <v>16</v>
-      </c>
+      <c r="M22" s="45"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" spans="1:15" s="19" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-    </row>
-    <row r="25" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+    <row r="23" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
         <v>25</v>
       </c>
+      <c r="B23" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="B25" s="49" t="s">
-        <v>43</v>
+        <v>434</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="46" t="s">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="37" t="s">
-        <v>46</v>
+      <c r="K25" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>48</v>
-      </c>
+    <row r="26" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="46" t="s">
-        <v>463</v>
-      </c>
+      <c r="E26" s="29"/>
       <c r="F26" s="14"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -2793,27 +2754,19 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>447</v>
-      </c>
+      <c r="A27" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="26"/>
-      <c r="E27" s="46" t="s">
-        <v>446</v>
-      </c>
+      <c r="E27" s="29"/>
       <c r="F27" s="14"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="K27" s="28"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -2836,12 +2789,16 @@
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="D29" s="26"/>
       <c r="E29" s="29"/>
       <c r="F29" s="14"/>
@@ -2855,10 +2812,16 @@
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="D30" s="26"/>
       <c r="E30" s="29"/>
       <c r="F30" s="14"/>
@@ -2872,52 +2835,6 @@
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2926,11 +2843,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H389"/>
+  <dimension ref="A1:H395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2956,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>55</v>
@@ -2965,7 +2882,7 @@
         <v>56</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3042,618 +2959,592 @@
       </c>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="39"/>
+    <row r="8" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>70</v>
+      <c r="B9" s="36" t="s">
+        <v>447</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>448</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="39"/>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="39"/>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="39"/>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="39"/>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D24" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="39"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="39"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>120</v>
+      <c r="C26" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="39"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D32" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="39"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="39"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="B33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="5" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="32"/>
+      <c r="C35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="32"/>
+        <v>132</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>397</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="E39" s="43"/>
-    </row>
-    <row r="40" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-    </row>
-    <row r="41" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>435</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>439</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="E41" s="43"/>
+        <v>132</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="32"/>
     </row>
     <row r="42" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>440</v>
+        <v>449</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>452</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="E42" s="43"/>
     </row>
-    <row r="43" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
-        <v>435</v>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>396</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>438</v>
-      </c>
-      <c r="E43" s="43"/>
+        <v>450</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="44" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="A44" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>451</v>
+      </c>
       <c r="E44" s="43"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>160</v>
-      </c>
+    <row r="45" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+    </row>
+    <row r="46" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="E46" s="43"/>
+    </row>
+    <row r="47" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="E47" s="43"/>
+    </row>
+    <row r="48" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="E48" s="43"/>
+    </row>
+    <row r="49" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="43"/>
+    </row>
+    <row r="50" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3661,115 +3552,97 @@
         <v>55</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F59" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3777,16 +3650,16 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3794,16 +3667,16 @@
         <v>56</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F61" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3811,16 +3684,16 @@
         <v>56</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3828,16 +3701,16 @@
         <v>56</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3845,16 +3718,16 @@
         <v>56</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F64" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3862,16 +3735,16 @@
         <v>56</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F65" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3879,16 +3752,16 @@
         <v>56</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F66" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3896,16 +3769,16 @@
         <v>56</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3913,13 +3786,13 @@
         <v>56</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F68" t="s">
         <v>159</v>
@@ -3930,16 +3803,16 @@
         <v>56</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3947,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="F70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3964,16 +3837,16 @@
         <v>56</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3981,16 +3854,16 @@
         <v>56</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3998,16 +3871,16 @@
         <v>56</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F73" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -4015,16 +3888,16 @@
         <v>56</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F74" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -4032,16 +3905,16 @@
         <v>56</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F75" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -4049,16 +3922,16 @@
         <v>56</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F76" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -4066,13 +3939,13 @@
         <v>56</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F77" t="s">
         <v>156</v>
@@ -4083,16 +3956,16 @@
         <v>56</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -4100,16 +3973,16 @@
         <v>56</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -4117,16 +3990,16 @@
         <v>56</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -4134,16 +4007,16 @@
         <v>56</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -4151,16 +4024,16 @@
         <v>56</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -4168,16 +4041,16 @@
         <v>56</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -4185,16 +4058,16 @@
         <v>56</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -4202,16 +4075,16 @@
         <v>56</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -4219,16 +4092,16 @@
         <v>56</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F86" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -4236,16 +4109,16 @@
         <v>56</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -4253,16 +4126,16 @@
         <v>56</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F88" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -4270,16 +4143,16 @@
         <v>56</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4287,16 +4160,16 @@
         <v>56</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4304,16 +4177,16 @@
         <v>56</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4321,16 +4194,16 @@
         <v>56</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4338,16 +4211,16 @@
         <v>56</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F93" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4355,16 +4228,16 @@
         <v>56</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F94" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4372,16 +4245,16 @@
         <v>56</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4389,16 +4262,16 @@
         <v>56</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4406,16 +4279,16 @@
         <v>56</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F97" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4423,16 +4296,16 @@
         <v>56</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4440,16 +4313,16 @@
         <v>56</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F99" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4457,16 +4330,16 @@
         <v>56</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F100" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4474,16 +4347,16 @@
         <v>56</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4491,16 +4364,16 @@
         <v>56</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -4508,16 +4381,16 @@
         <v>56</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F103" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4525,16 +4398,16 @@
         <v>56</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4542,16 +4415,16 @@
         <v>56</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4559,16 +4432,16 @@
         <v>56</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -4576,16 +4449,16 @@
         <v>56</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4593,13 +4466,13 @@
         <v>56</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
         <v>161</v>
@@ -4610,16 +4483,16 @@
         <v>56</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4627,16 +4500,16 @@
         <v>56</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4644,16 +4517,16 @@
         <v>56</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4661,13 +4534,13 @@
         <v>56</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
         <v>161</v>
@@ -4678,16 +4551,16 @@
         <v>56</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4695,16 +4568,16 @@
         <v>56</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4712,16 +4585,16 @@
         <v>56</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4729,16 +4602,16 @@
         <v>56</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4746,16 +4619,16 @@
         <v>56</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4763,16 +4636,16 @@
         <v>56</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4780,16 +4653,16 @@
         <v>56</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -4797,16 +4670,16 @@
         <v>56</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4814,16 +4687,16 @@
         <v>56</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4831,16 +4704,16 @@
         <v>56</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F122" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4848,16 +4721,16 @@
         <v>56</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F123" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4865,16 +4738,16 @@
         <v>56</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4882,16 +4755,16 @@
         <v>56</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F125" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4899,16 +4772,16 @@
         <v>56</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4916,16 +4789,16 @@
         <v>56</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F127" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4933,13 +4806,13 @@
         <v>56</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
         <v>161</v>
@@ -4950,16 +4823,16 @@
         <v>56</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4967,16 +4840,16 @@
         <v>56</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4984,16 +4857,16 @@
         <v>56</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F131" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -5001,16 +4874,16 @@
         <v>56</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -5018,16 +4891,16 @@
         <v>56</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F133" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -5035,16 +4908,16 @@
         <v>56</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -5052,16 +4925,16 @@
         <v>56</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F135" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -5069,16 +4942,16 @@
         <v>56</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F136" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -5086,16 +4959,16 @@
         <v>56</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F137" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -5103,16 +4976,16 @@
         <v>56</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F138" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -5120,13 +4993,13 @@
         <v>56</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F139" t="s">
         <v>160</v>
@@ -5137,16 +5010,16 @@
         <v>56</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F140" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -5154,16 +5027,16 @@
         <v>56</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -5171,16 +5044,16 @@
         <v>56</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F142" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -5188,16 +5061,16 @@
         <v>56</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F143" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -5205,16 +5078,16 @@
         <v>56</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5222,16 +5095,16 @@
         <v>56</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -5239,16 +5112,16 @@
         <v>56</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F146" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -5256,3005 +5129,3005 @@
         <v>56</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F147" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F148" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>56</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F149" t="s">
         <v>154</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G149" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G150" t="s">
-        <v>180</v>
+        <v>251</v>
+      </c>
+      <c r="F150" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G151" t="s">
-        <v>189</v>
+        <v>252</v>
+      </c>
+      <c r="F151" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>56</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F152" t="s">
         <v>154</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G152" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G153" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G154" t="s">
-        <v>203</v>
+        <v>254</v>
+      </c>
+      <c r="F153" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G155" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G156" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="G157" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="G158" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G159" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G160" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G161" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G162" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="G163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G164" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G165" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>153</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G166" t="s">
         <v>154</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G166" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>153</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G167" t="s">
         <v>154</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G167" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G168" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G169" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G170" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G171" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G172" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G173" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G174" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G175" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G176" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G177" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G178" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G179" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G180" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G181" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G182" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G183" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G184" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G185" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G186" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G187" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G188" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G189" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G190" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G191" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G192" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G193" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G194" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G195" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G196" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G197" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G198" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G199" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G200" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G201" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G202" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G203" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G204" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G205" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G206" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G207" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G208" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G209" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G210" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G211" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G212" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G213" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G214" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G215" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G216" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G217" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G218" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G219" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G220" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G221" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G222" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G223" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G224" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G225" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G226" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G227" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G228" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G229" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G230" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G231" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G232" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G233" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G234" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G235" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G236" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G237" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G238" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G239" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G240" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G241" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>153</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G242" t="s">
         <v>154</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G242" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G243" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G244" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G245" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G246" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>189</v>
+        <v>355</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>189</v>
+        <v>355</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>189</v>
+        <v>355</v>
       </c>
       <c r="G247" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G248" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G249" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G250" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G251" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G252" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>369</v>
+        <v>188</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>369</v>
+        <v>188</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>369</v>
+        <v>188</v>
       </c>
       <c r="G253" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G254" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G255" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>153</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G256" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>153</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G257" t="s">
         <v>154</v>
       </c>
-      <c r="B256" s="5" t="s">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>153</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G258" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>153</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G259" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>153</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G260" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>153</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G261" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>153</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G262" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>153</v>
+      </c>
+      <c r="B263" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C256" s="5" t="s">
+      <c r="C263" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D256" s="5" t="s">
+      <c r="D263" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G256" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>154</v>
-      </c>
-      <c r="B257" s="5" t="s">
+      <c r="G263" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>153</v>
+      </c>
+      <c r="B264" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C257" s="5" t="s">
+      <c r="C264" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D257" s="5" t="s">
+      <c r="D264" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="G257" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>154</v>
-      </c>
-      <c r="B258" s="5" t="s">
+      <c r="G264" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>153</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C258" s="5" t="s">
+      <c r="C265" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D258" s="5" t="s">
+      <c r="D265" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="G258" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>154</v>
-      </c>
-      <c r="B259" s="5" t="s">
+      <c r="G265" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>153</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C266" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D259" s="5" t="s">
+      <c r="D266" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G259" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>154</v>
-      </c>
-      <c r="B260" s="5" t="s">
+      <c r="G266" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>153</v>
+      </c>
+      <c r="B267" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C260" s="5" t="s">
+      <c r="C267" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D260" s="5" t="s">
+      <c r="D267" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="G260" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>154</v>
-      </c>
-      <c r="B261" s="5" t="s">
+      <c r="G267" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>153</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="G261" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>154</v>
-      </c>
-      <c r="B262" s="5" t="s">
+      <c r="C268" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="D268" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D262" s="5" t="s">
+      <c r="G268" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>153</v>
+      </c>
+      <c r="B269" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="G262" t="s">
+      <c r="C269" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G269" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>153</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G270" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>153</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G271" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>153</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G272" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>154</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G263" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>154</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G264" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>154</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="G265" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>154</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G266" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>154</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G267" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>154</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="G268" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>386</v>
-      </c>
-      <c r="B270" s="5">
-        <v>101</v>
-      </c>
-      <c r="C270" s="5">
-        <v>101</v>
-      </c>
-      <c r="D270" s="5">
-        <v>101</v>
-      </c>
-      <c r="H270" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>386</v>
-      </c>
-      <c r="B271" s="5">
-        <v>102</v>
-      </c>
-      <c r="C271" s="5">
-        <v>102</v>
-      </c>
-      <c r="D271" s="5">
-        <v>102</v>
-      </c>
-      <c r="H271" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>386</v>
-      </c>
-      <c r="B272" s="5">
-        <v>103</v>
-      </c>
-      <c r="C272" s="5">
-        <v>103</v>
-      </c>
-      <c r="D272" s="5">
-        <v>103</v>
-      </c>
-      <c r="H272" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>386</v>
-      </c>
-      <c r="B273" s="5">
-        <v>104</v>
-      </c>
-      <c r="C273" s="5">
-        <v>104</v>
-      </c>
-      <c r="D273" s="5">
-        <v>104</v>
-      </c>
-      <c r="H273" t="s">
-        <v>265</v>
+        <v>153</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G273" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>386</v>
-      </c>
-      <c r="B274" s="5">
-        <v>105</v>
-      </c>
-      <c r="C274" s="5">
-        <v>105</v>
-      </c>
-      <c r="D274" s="5">
-        <v>105</v>
-      </c>
-      <c r="H274" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>386</v>
-      </c>
-      <c r="B275" s="5">
-        <v>106</v>
-      </c>
-      <c r="C275" s="5">
-        <v>106</v>
-      </c>
-      <c r="D275" s="5">
-        <v>106</v>
-      </c>
-      <c r="H275" t="s">
-        <v>351</v>
+        <v>153</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G274" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B276" s="5">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C276" s="5">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D276" s="5">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H276" t="s">
-        <v>367</v>
+        <v>163</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B277" s="5">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C277" s="5">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D277" s="5">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H277" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B278" s="5">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C278" s="5">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D278" s="5">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H278" t="s">
-        <v>189</v>
+        <v>381</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B279" s="5">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C279" s="5">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D279" s="5">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H279" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B280" s="5">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C280" s="5">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D280" s="5">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H280" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B281" s="5">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C281" s="5">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D281" s="5">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H281" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B282" s="5">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C282" s="5">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D282" s="5">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H282" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B283" s="5">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C283" s="5">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D283" s="5">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H283" t="s">
-        <v>384</v>
+        <v>257</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B284" s="5">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C284" s="5">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D284" s="5">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H284" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B285" s="5">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C285" s="5">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D285" s="5">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H285" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B286" s="5">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C286" s="5">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D286" s="5">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H286" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B287" s="5">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C287" s="5">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D287" s="5">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H287" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B288" s="5">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C288" s="5">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D288" s="5">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H288" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B289" s="5">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C289" s="5">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D289" s="5">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H289" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B290" s="5">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C290" s="5">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D290" s="5">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H290" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B291" s="5">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C291" s="5">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D291" s="5">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H291" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B292" s="5">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C292" s="5">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D292" s="5">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H292" t="s">
-        <v>269</v>
+        <v>367</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B293" s="5">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C293" s="5">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D293" s="5">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H293" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B294" s="5">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C294" s="5">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D294" s="5">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H294" t="s">
-        <v>362</v>
+        <v>260</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B295" s="5">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C295" s="5">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D295" s="5">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H295" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B296" s="5">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C296" s="5">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D296" s="5">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H296" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B297" s="5">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C297" s="5">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D297" s="5">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H297" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B298" s="5">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C298" s="5">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D298" s="5">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H298" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B299" s="5">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C299" s="5">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D299" s="5">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H299" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B300" s="5">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C300" s="5">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D300" s="5">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H300" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B301" s="5">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C301" s="5">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D301" s="5">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H301" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B302" s="5">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C302" s="5">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D302" s="5">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H302" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B303" s="5">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C303" s="5">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D303" s="5">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H303" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B304" s="5">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C304" s="5">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D304" s="5">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H304" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B305" s="5">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C305" s="5">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D305" s="5">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H305" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B306" s="5">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C306" s="5">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D306" s="5">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H306" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B307" s="5">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C307" s="5">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D307" s="5">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H307" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B308" s="5">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C308" s="5">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D308" s="5">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H308" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B309" s="5">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C309" s="5">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D309" s="5">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H309" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B310" s="5">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C310" s="5">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D310" s="5">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H310" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B311" s="5">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C311" s="5">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D311" s="5">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H311" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B312" s="5">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C312" s="5">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D312" s="5">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H312" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B313" s="5">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C313" s="5">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D313" s="5">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H313" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B314" s="5">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C314" s="5">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D314" s="5">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H314" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B315" s="5">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C315" s="5">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D315" s="5">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H315" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B316" s="5">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C316" s="5">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D316" s="5">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H316" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B317" s="5">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C317" s="5">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D317" s="5">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H317" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B318" s="5">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C318" s="5">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D318" s="5">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H318" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B319" s="5">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C319" s="5">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D319" s="5">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H319" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B320" s="5">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C320" s="5">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D320" s="5">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H320" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B321" s="5">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C321" s="5">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D321" s="5">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H321" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B322" s="5">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C322" s="5">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D322" s="5">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H322" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B323" s="5">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C323" s="5">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D323" s="5">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H323" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B324" s="5">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C324" s="5">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D324" s="5">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H324" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B325" s="5">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C325" s="5">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D325" s="5">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H325" t="s">
         <v>293</v>
@@ -8262,1090 +8135,1192 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B326" s="5">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C326" s="5">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D326" s="5">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H326" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B327" s="5">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C327" s="5">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D327" s="5">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H327" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B328" s="5">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C328" s="5">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D328" s="5">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H328" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B329" s="5">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C329" s="5">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D329" s="5">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H329" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B330" s="5">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C330" s="5">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D330" s="5">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H330" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B331" s="5">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C331" s="5">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D331" s="5">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H331" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B332" s="5">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C332" s="5">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D332" s="5">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H332" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B333" s="5">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C333" s="5">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D333" s="5">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H333" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B334" s="5">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C334" s="5">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D334" s="5">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H334" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B335" s="5">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C335" s="5">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D335" s="5">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H335" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B336" s="5">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C336" s="5">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D336" s="5">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H336" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B337" s="5">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C337" s="5">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D337" s="5">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H337" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B338" s="5">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C338" s="5">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D338" s="5">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H338" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B339" s="5">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C339" s="5">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D339" s="5">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H339" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B340" s="5">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C340" s="5">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D340" s="5">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H340" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B341" s="5">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C341" s="5">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D341" s="5">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H341" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B342" s="5">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C342" s="5">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D342" s="5">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H342" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B343" s="5">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C343" s="5">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D343" s="5">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H343" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B344" s="5">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C344" s="5">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D344" s="5">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H344" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B345" s="5">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C345" s="5">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D345" s="5">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H345" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B346" s="5">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C346" s="5">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D346" s="5">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H346" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B347" s="5">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C347" s="5">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D347" s="5">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H347" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B348" s="5">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C348" s="5">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D348" s="5">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H348" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B349" s="5">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C349" s="5">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D349" s="5">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H349" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B350" s="5">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C350" s="5">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D350" s="5">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H350" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B351" s="5">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C351" s="5">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D351" s="5">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H351" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B352" s="5">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C352" s="5">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D352" s="5">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H352" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B353" s="5">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C353" s="5">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D353" s="5">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H353" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B354" s="5">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C354" s="5">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D354" s="5">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H354" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B355" s="5">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C355" s="5">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D355" s="5">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H355" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B356" s="5">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C356" s="5">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D356" s="5">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H356" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B357" s="5">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C357" s="5">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D357" s="5">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H357" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B358" s="5">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C358" s="5">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D358" s="5">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H358" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B359" s="5">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C359" s="5">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D359" s="5">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H359" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B360" s="5">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C360" s="5">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D360" s="5">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H360" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B361" s="5">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C361" s="5">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D361" s="5">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H361" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B362" s="5">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C362" s="5">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D362" s="5">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H362" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B363" s="5">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C363" s="5">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D363" s="5">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H363" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B364" s="5">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C364" s="5">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D364" s="5">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H364" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B365" s="5">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C365" s="5">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D365" s="5">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H365" t="s">
-        <v>375</v>
+        <v>304</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B366" s="5">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C366" s="5">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D366" s="5">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H366" t="s">
-        <v>369</v>
+        <v>255</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B367" s="5">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C367" s="5">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D367" s="5">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H367" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B368" s="5">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C368" s="5">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D368" s="5">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H368" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B369" s="5">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C369" s="5">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D369" s="5">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H369" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B370" s="5">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C370" s="5">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D370" s="5">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H370" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B371" s="5">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C371" s="5">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D371" s="5">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H371" t="s">
-        <v>263</v>
+        <v>374</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B372" s="5">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C372" s="5">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D372" s="5">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H372" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B373" s="5">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C373" s="5">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D373" s="5">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H373" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B374" s="5">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C374" s="5">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D374" s="5">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H374" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B375" s="5">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C375" s="5">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D375" s="5">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H375" t="s">
-        <v>273</v>
+        <v>365</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B376" s="5">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C376" s="5">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D376" s="5">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H376" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B377" s="5">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C377" s="5">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D377" s="5">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H377" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B378" s="5">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C378" s="5">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D378" s="5">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H378" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B379" s="5">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C379" s="5">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D379" s="5">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H379" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B380" s="5">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C380" s="5">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D380" s="5">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H380" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B381" s="5">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C381" s="5">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D381" s="5">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H381" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B382" s="5">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C382" s="5">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D382" s="5">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H382" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B383" s="5">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C383" s="5">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D383" s="5">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H383" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B384" s="5">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C384" s="5">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D384" s="5">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H384" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B385" s="5">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C385" s="5">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D385" s="5">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H385" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B386" s="5">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C386" s="5">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D386" s="5">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H386" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C387" s="5">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D387" s="5">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H387" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B388" s="5">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C388" s="5">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D388" s="5">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H388" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B389" s="5">
+        <v>214</v>
+      </c>
+      <c r="C389" s="5">
+        <v>214</v>
+      </c>
+      <c r="D389" s="5">
+        <v>214</v>
+      </c>
+      <c r="H389" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>385</v>
+      </c>
+      <c r="B390" s="5">
+        <v>215</v>
+      </c>
+      <c r="C390" s="5">
+        <v>215</v>
+      </c>
+      <c r="D390" s="5">
+        <v>215</v>
+      </c>
+      <c r="H390" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>385</v>
+      </c>
+      <c r="B391" s="5">
+        <v>216</v>
+      </c>
+      <c r="C391" s="5">
+        <v>216</v>
+      </c>
+      <c r="D391" s="5">
+        <v>216</v>
+      </c>
+      <c r="H391" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>385</v>
+      </c>
+      <c r="B392" s="5">
+        <v>217</v>
+      </c>
+      <c r="C392" s="5">
+        <v>217</v>
+      </c>
+      <c r="D392" s="5">
+        <v>217</v>
+      </c>
+      <c r="H392" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>385</v>
+      </c>
+      <c r="B393" s="5">
+        <v>218</v>
+      </c>
+      <c r="C393" s="5">
+        <v>218</v>
+      </c>
+      <c r="D393" s="5">
+        <v>218</v>
+      </c>
+      <c r="H393" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>385</v>
+      </c>
+      <c r="B394" s="5">
+        <v>219</v>
+      </c>
+      <c r="C394" s="5">
+        <v>219</v>
+      </c>
+      <c r="D394" s="5">
+        <v>219</v>
+      </c>
+      <c r="H394" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>385</v>
+      </c>
+      <c r="B395" s="5">
         <v>220</v>
       </c>
-      <c r="C389" s="5">
+      <c r="C395" s="5">
         <v>220</v>
       </c>
-      <c r="D389" s="5">
+      <c r="D395" s="5">
         <v>220</v>
       </c>
-      <c r="H389" t="s">
-        <v>283</v>
+      <c r="H395" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -9370,24 +9345,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_2_child_202205.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/sn_sch_sth_impact_2_child_202205.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66551B81-46D8-4538-BB0C-FC1A1E85C089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C33AE6-5B1C-40A6-9862-6C5FBEF9F5C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="450">
   <si>
     <t>type</t>
   </si>
@@ -1286,27 +1286,9 @@
     <t xml:space="preserve">Respondent's identification code (Please copy this code as it is somewhere, among other things, on the diagnostic tests) </t>
   </si>
   <si>
-    <t>How is this code generated: First capital letter of the district - 3-digit school code - 3-digit child serial number. Example: D-101-001</t>
-  </si>
-  <si>
-    <t>begin repeat</t>
-  </si>
-  <si>
-    <t>p_boucle</t>
-  </si>
-  <si>
-    <t>Enrôlement</t>
-  </si>
-  <si>
-    <t>Enrollment</t>
-  </si>
-  <si>
     <t>select_one yesNo</t>
   </si>
   <si>
-    <t>end repeat</t>
-  </si>
-  <si>
     <t>Do you frequent pools of water (backwater, river, temporary pool of water, etc.)?</t>
   </si>
   <si>
@@ -1385,30 +1367,9 @@
     <t>${p_consent} = 'A.donne' and ${p_connait_bilh} = 'Oui'</t>
   </si>
   <si>
-    <t>Ce code est composé du : Code de l'école sur 3 chiffres - Numéro d'ordre de l'enfant sur 3 chiffres suivi d'une lettre en majuscule correspondant au district. Exemple: 101-001D correspond au 1er participant de l'école numéro 101 du District DIAKHAO,</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>p_first_letter</t>
-  </si>
-  <si>
-    <t>concat(${p_site_code}, '-', if(position(..)&lt;10, concat('00', position(..)), if(position(..)&gt;=10 and position(..)&lt;100, concat('0', position(..)), position(..) )), ${p_first_letter})</t>
-  </si>
-  <si>
-    <t>if(${p_district}='DIAKHAO', 'D', if(${p_district}='FATICK', 'F', if(${p_district}='GOSSAS', 'G', if(${p_district}='KHOMBOLE', 'H', if(${p_district}='KOLDA', 'K', if(${p_district}='MALEM HODAR', 'M', if(${p_district}='NIAKHAR', 'N', if(${p_district}='VELINGARA', 'V', 'A' ))))))) )</t>
-  </si>
-  <si>
     <t>Note additionnelle :</t>
   </si>
   <si>
-    <t>(Mai 2022) - 2. SCH/STH – Participant V2</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_2_child_202205_v2</t>
-  </si>
-  <si>
     <t>. &gt;= 5 and . &lt;= 14</t>
   </si>
   <si>
@@ -1458,6 +1419,12 @@
   </si>
   <si>
     <t>p_barcodeid</t>
+  </si>
+  <si>
+    <t>(Mai 2022) - 2. SCH/STH – Participant V4</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_2_child_202205_v4</t>
   </si>
 </sst>
 </file>
@@ -2012,13 +1979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2086,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="20" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -2266,12 +2233,8 @@
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>438</v>
-      </c>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="11"/>
@@ -2281,14 +2244,12 @@
       <c r="I8" s="45"/>
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
-      <c r="L8" s="36" t="s">
-        <v>440</v>
-      </c>
+      <c r="L8" s="45"/>
       <c r="M8" s="45"/>
       <c r="N8" s="45"/>
       <c r="O8" s="45"/>
     </row>
-    <row r="9" spans="1:16" s="21" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="21" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
       <c r="C9" s="16"/>
@@ -2305,20 +2266,12 @@
       <c r="N9" s="45"/>
       <c r="O9" s="45"/>
     </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>407</v>
-      </c>
+    <row r="10" spans="1:16" s="21" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="11" t="s">
-        <v>406</v>
-      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
@@ -2330,155 +2283,173 @@
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
     </row>
-    <row r="11" spans="1:16" s="21" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-    </row>
-    <row r="12" spans="1:16" s="21" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="16"/>
+    <row r="11" spans="1:16" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" s="19" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>402</v>
+      </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
+      <c r="E12" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="M12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>32</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="H13" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="8"/>
       <c r="M13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" spans="1:16" s="19" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>403</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="11"/>
+        <v>409</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="36" t="s">
-        <v>439</v>
-      </c>
+      <c r="L14" s="28"/>
       <c r="M14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>37</v>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>394</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>39</v>
+        <v>393</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="34" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="37" t="s">
-        <v>444</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>446</v>
-      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9" t="s">
+      <c r="L15" s="28"/>
+      <c r="M15" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>40</v>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>403</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>42</v>
+        <v>442</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>443</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="34" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="28"/>
@@ -2489,25 +2460,25 @@
         <v>34</v>
       </c>
       <c r="L16" s="28"/>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="45" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
     </row>
-    <row r="17" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
-        <v>394</v>
+    <row r="17" spans="1:15" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>403</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="34" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="28"/>
@@ -2518,25 +2489,25 @@
         <v>34</v>
       </c>
       <c r="L17" s="28"/>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="36" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
     </row>
-    <row r="18" spans="1:15" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>408</v>
+    <row r="18" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>456</v>
+        <v>426</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>405</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="34" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="28"/>
@@ -2547,25 +2518,25 @@
         <v>34</v>
       </c>
       <c r="L18" s="28"/>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="36" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" spans="1:15" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="19" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="34" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="28"/>
@@ -2573,7 +2544,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="31"/>
       <c r="K19" s="36" t="s">
-        <v>34</v>
+        <v>429</v>
       </c>
       <c r="L19" s="28"/>
       <c r="M19" s="36" t="s">
@@ -2583,121 +2554,107 @@
       <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>411</v>
-      </c>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="34" t="s">
-        <v>417</v>
-      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="30"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="K20" s="45"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="36" t="s">
-        <v>16</v>
-      </c>
+      <c r="M20" s="45"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="1:15" s="19" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+    <row r="21" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
         <v>25</v>
       </c>
+      <c r="B21" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="49" t="s">
-        <v>43</v>
+        <v>428</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="46" t="s">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="37" t="s">
-        <v>46</v>
+      <c r="K23" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>48</v>
-      </c>
+    <row r="24" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="46" t="s">
-        <v>441</v>
-      </c>
+      <c r="E24" s="29"/>
       <c r="F24" s="14"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2710,36 +2667,32 @@
       <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>429</v>
-      </c>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="46" t="s">
-        <v>428</v>
-      </c>
+      <c r="E25" s="29"/>
       <c r="F25" s="14"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="K25" s="28"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" s="26"/>
       <c r="E26" s="29"/>
       <c r="F26" s="14"/>
@@ -2753,12 +2706,16 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="D27" s="26"/>
       <c r="E27" s="29"/>
       <c r="F27" s="14"/>
@@ -2771,69 +2728,6 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2971,7 +2865,7 @@
         <v>66</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>67</v>
@@ -2986,7 +2880,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>70</v>
@@ -3422,13 +3316,13 @@
         <v>396</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="E42" s="43"/>
     </row>
@@ -3437,13 +3331,13 @@
         <v>396</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -3451,13 +3345,13 @@
         <v>396</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E44" s="43"/>
     </row>
@@ -3469,58 +3363,58 @@
     </row>
     <row r="46" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="42" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="42" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="C48" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="B48" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>427</v>
-      </c>
       <c r="D48" s="43" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="42" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B49" s="48" t="s">
         <v>87</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D49" s="48" t="s">
         <v>87</v>
@@ -9356,10 +9250,10 @@
     </row>
     <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C2" t="s">
         <v>148</v>
